--- a/docs/IOCM/Beta Test form user responses final.xlsx
+++ b/docs/IOCM/Beta Test form user responses final.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox\ITC309\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\instantmessenger\docs\IOCM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10695" windowHeight="4080" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10695" windowHeight="4080" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test1" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="68">
   <si>
     <t>What is your name?</t>
   </si>
@@ -217,12 +217,48 @@
   <si>
     <t>the beep helps me to notice that something has changed.</t>
   </si>
+  <si>
+    <t>Trish Bell</t>
+  </si>
+  <si>
+    <t>I had trouble unzipping the folder.</t>
+  </si>
+  <si>
+    <t>No problems.</t>
+  </si>
+  <si>
+    <t>worked well. Easy to add and obvious how to chat. Send button has 'se...' not 'send' . Was obvious what it was though.</t>
+  </si>
+  <si>
+    <t>no problems, was straight forward</t>
+  </si>
+  <si>
+    <t>I couldn't see that a new contact had come through when I was on the chat page. I did know that a new message had arrived when on the contact page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everything worked, a sound and red indicator showed that a new message had come from another contact. The sound only occurred the first time though, after that when only the red indicator occurred.
+</t>
+  </si>
+  <si>
+    <t>I would think blocked means they cant contact me at all. Delete removes them from my contacts but they are able to send another contact request. Didn't have any problems with this section.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As I thought when I deleted contact they were able to send another chat request, but when I blocked them they were not able to do this. This worked well
+</t>
+  </si>
+  <si>
+    <t>I was a bit confused about how to make a group and chat with them. Worked it out in the end though.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the chat room worked well. Was obvious where had to name group, and easy to send requests. When talking in chat room was able to see when private message arrived and switch to view that. Different colors for different users looks good and makes it easy to see who's talking
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -254,6 +290,30 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -275,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -312,6 +372,31 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,12 +711,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -712,6 +797,24 @@
         <v>55</v>
       </c>
     </row>
+    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -719,13 +822,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D7" sqref="D7"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -800,19 +903,250 @@
       </c>
       <c r="D5" s="3"/>
     </row>
+    <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D7" sqref="D7"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D7:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" style="20" customWidth="1"/>
+    <col min="3" max="3" width="47.42578125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="50.85546875" style="20" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="13" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="16" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="16" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="16" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="16" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -828,193 +1162,6 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D7" sqref="D7"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D7" sqref="D7"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -1078,6 +1225,20 @@
       </c>
       <c r="D5" s="11" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
